--- a/smithbase.xlsx
+++ b/smithbase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20a88b29a80e6ee9/Documents/My Works/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiera\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{2EB29797-F75A-4E1E-A9FF-8C2727A48E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5430BD0B-A8B6-44EF-83F0-1F6EE0FAB0DE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A052AE1F-6B8A-49BC-A5CE-416A95D84983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1AD7A321-5BFA-40A2-ABF9-45D2C06A7076}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="276">
   <si>
     <t>Name</t>
   </si>
@@ -113,12 +113,6 @@
     <t>Claude Monet</t>
   </si>
   <si>
-    <t>Diego VelÃ¡zquez</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
     <t>El Greco</t>
   </si>
   <si>
@@ -191,12 +185,6 @@
     <t>Byelorussian Soviet Socialist Republic; Russian Empire; Belarusian People's Republic</t>
   </si>
   <si>
-    <t>FrantiÅ¡ek PlÃ¡niÄka</t>
-  </si>
-  <si>
-    <t>Czech Republic; Czechoslovakia</t>
-  </si>
-  <si>
     <t>Linda Lovelace</t>
   </si>
   <si>
@@ -239,21 +227,12 @@
     <t>France; French Third Republic; Second French Empire</t>
   </si>
   <si>
-    <t>Ulrich FrÃ©dÃ©ric Woldemar, Comte de Lowendal</t>
-  </si>
-  <si>
-    <t>Denmark; Russian Empire; Kingdom of France; Electorate of Saxony</t>
-  </si>
-  <si>
     <t>Charles Baudelaire</t>
   </si>
   <si>
     <t>Stendhal</t>
   </si>
   <si>
-    <t>Ã‰mile Zola</t>
-  </si>
-  <si>
     <t>Vladimir Vysotsky</t>
   </si>
   <si>
@@ -287,12 +266,6 @@
     <t>Jorge Alessandri</t>
   </si>
   <si>
-    <t>Carlos IbÃ¡Ã±ez del Campo</t>
-  </si>
-  <si>
-    <t>LuÃ­s de CamÃµes</t>
-  </si>
-  <si>
     <t>Nicolaus Copernicus</t>
   </si>
   <si>
@@ -320,18 +293,12 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>AndrÃ©-Marie AmpÃ¨re</t>
-  </si>
-  <si>
     <t>Alessandro Volta</t>
   </si>
   <si>
     <t>Duchy of Milan; Kingdom of Lombardyâ€“Venetia; Cisalpine Republic; Kingdom of Italy</t>
   </si>
   <si>
-    <t>MoliÃ¨re</t>
-  </si>
-  <si>
     <t>William Shakespeare</t>
   </si>
   <si>
@@ -371,12 +338,6 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>StÃ©phane MallarmÃ©</t>
-  </si>
-  <si>
-    <t>Gabriel GonzÃ¡les Videla</t>
-  </si>
-  <si>
     <t>Juan Antonio Rios</t>
   </si>
   <si>
@@ -425,24 +386,12 @@
     <t>United States of America; Soviet Union</t>
   </si>
   <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
     <t>Philosopher</t>
   </si>
   <si>
     <t>Charlie Chaplin</t>
   </si>
   <si>
-    <t>JÃ³zef PiÅ‚sudski</t>
-  </si>
-  <si>
-    <t>Poland; Russian Empire; Second Polish Republic</t>
-  </si>
-  <si>
-    <t>J.Â R.Â R. Tolkien</t>
-  </si>
-  <si>
     <t>Franz Kafka</t>
   </si>
   <si>
@@ -524,12 +473,6 @@
     <t>British Raj; Dominion of India</t>
   </si>
   <si>
-    <t>France PreÅ¡eren</t>
-  </si>
-  <si>
-    <t>Austrian Empire; Illyrian Provinces</t>
-  </si>
-  <si>
     <t>Charles Darwin</t>
   </si>
   <si>
@@ -644,12 +587,6 @@
     <t>Austria; Nazi Germany; Federal State of Austria; Republic of German-Austria; First Republic of Austria</t>
   </si>
   <si>
-    <t>Dag HammarskjÃ¶ld</t>
-  </si>
-  <si>
-    <t>FrÃ©dÃ©ric Chopin</t>
-  </si>
-  <si>
     <t>Trygve Lie</t>
   </si>
   <si>
@@ -668,15 +605,9 @@
     <t>Blaise Pascal</t>
   </si>
   <si>
-    <t>RamÃ³n Barros Luco</t>
-  </si>
-  <si>
     <t>Pedro Montt</t>
   </si>
   <si>
-    <t>GermÃ¡n Riesco</t>
-  </si>
-  <si>
     <t>Saddam Hussein</t>
   </si>
   <si>
@@ -692,60 +623,30 @@
     <t>Businessperson</t>
   </si>
   <si>
-    <t>AnÃ­bal ZaÃ±artu</t>
-  </si>
-  <si>
-    <t>Federico ErrÃ¡zuriz Echaurren</t>
-  </si>
-  <si>
     <t>Jorge Montt</t>
   </si>
   <si>
-    <t>JosÃ© Manuel Balmaceda</t>
-  </si>
-  <si>
-    <t>Domingo Santa MarÃ­a</t>
-  </si>
-  <si>
-    <t>AnÃ­bal Pinto</t>
-  </si>
-  <si>
     <t>Friedrich Hayek</t>
   </si>
   <si>
     <t>Austria; United Kingdom</t>
   </si>
   <si>
-    <t>Federico ErrÃ¡zuriz ZaÃ±artu</t>
-  </si>
-  <si>
-    <t>JosÃ© JoaquÃ­n PÃ©rez</t>
-  </si>
-  <si>
     <t>Manuel Montt</t>
   </si>
   <si>
     <t>Manuel Bulnes</t>
   </si>
   <si>
-    <t>JosÃ© JoaquÃ­n Prieto</t>
-  </si>
-  <si>
     <t>Manuel Blanco Encalada</t>
   </si>
   <si>
-    <t>RamÃ³n Freire</t>
-  </si>
-  <si>
     <t>Francisco Antonio Pinto</t>
   </si>
   <si>
     <t>Johann Sebastian Bach</t>
   </si>
   <si>
-    <t>Holy Roman Empire; Saxe-Eisenach</t>
-  </si>
-  <si>
     <t>Antonio Vivaldi</t>
   </si>
   <si>
@@ -764,15 +665,6 @@
     <t>Russian Soviet Federative Socialist Republic; Soviet Union; Russian Empire</t>
   </si>
   <si>
-    <t>NiccolÃ² Machiavelli</t>
-  </si>
-  <si>
-    <t>Petrarch</t>
-  </si>
-  <si>
-    <t>Giovanni Boccaccio</t>
-  </si>
-  <si>
     <t>Luigi Pirandello</t>
   </si>
   <si>
@@ -800,9 +692,6 @@
     <t>Explorer</t>
   </si>
   <si>
-    <t>JosÃ© Rizal</t>
-  </si>
-  <si>
     <t>Manuel L. Quezon</t>
   </si>
   <si>
@@ -851,24 +740,12 @@
     <t>Charles Lindbergh</t>
   </si>
   <si>
-    <t>Sigfrid EdstrÃ¶m</t>
-  </si>
-  <si>
-    <t>David Cecil, 6th Marquess of Exeter</t>
-  </si>
-  <si>
-    <t>Ã‰dith Piaf</t>
-  </si>
-  <si>
     <t>Adriaan Paulen</t>
   </si>
   <si>
     <t>Primo Nebiolo</t>
   </si>
   <si>
-    <t>FranÃ§oise Sagan</t>
-  </si>
-  <si>
     <t>Jacques Brel</t>
   </si>
   <si>
@@ -911,9 +788,6 @@
     <t>Jan II Carondelet</t>
   </si>
   <si>
-    <t>Ferry Carondelet</t>
-  </si>
-  <si>
     <t>Daniel Balavoine</t>
   </si>
   <si>
@@ -929,9 +803,6 @@
     <t>Cesare Pavese</t>
   </si>
   <si>
-    <t>FranÃ§ois Mitterrand</t>
-  </si>
-  <si>
     <t>Giuseppe Farina</t>
   </si>
   <si>
@@ -965,9 +836,6 @@
     <t>Hans Schmidt</t>
   </si>
   <si>
-    <t>ValÃ©ry Giscard d'Estaing</t>
-  </si>
-  <si>
     <t>Jack Brabham</t>
   </si>
   <si>
@@ -990,6 +858,12 @@
   </si>
   <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>David Cecil</t>
+  </si>
+  <si>
+    <t>Holy Roman Empire</t>
   </si>
 </sst>
 </file>
@@ -1361,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78445146-6809-43E1-B44D-033FE09FD617}">
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1381,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1399,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1407,7 +1281,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1433,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1459,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1485,7 +1359,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1511,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1537,7 +1411,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1563,7 +1437,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1589,7 +1463,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1615,7 +1489,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1627,13 +1501,13 @@
         <v>12</v>
       </c>
       <c r="F10">
-        <v>1599</v>
+        <v>1541</v>
       </c>
       <c r="G10">
-        <v>1660</v>
+        <v>1614</v>
       </c>
       <c r="H10">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1641,25 +1515,28 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>1935</v>
+      </c>
+      <c r="G11">
+        <v>1977</v>
+      </c>
+      <c r="H11">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
         <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>1541</v>
-      </c>
-      <c r="G11">
-        <v>1614</v>
-      </c>
-      <c r="H11">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1667,54 +1544,51 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F12">
-        <v>1935</v>
+        <v>1564</v>
       </c>
       <c r="G12">
-        <v>1977</v>
+        <v>1642</v>
       </c>
       <c r="H12">
-        <v>42</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>1564</v>
+        <v>1918</v>
       </c>
       <c r="G13">
-        <v>1642</v>
+        <v>2016</v>
       </c>
       <c r="H13">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1722,25 +1596,25 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
       <c r="F14">
-        <v>1918</v>
+        <v>1214</v>
       </c>
       <c r="G14">
-        <v>2016</v>
+        <v>1270</v>
       </c>
       <c r="H14">
-        <v>98</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1748,22 +1622,22 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15">
-        <v>1214</v>
+        <v>1889</v>
       </c>
       <c r="G15">
-        <v>1270</v>
+        <v>1945</v>
       </c>
       <c r="H15">
         <v>56</v>
@@ -1771,106 +1645,106 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16">
-        <v>1889</v>
+        <v>1188</v>
       </c>
       <c r="G16">
-        <v>1945</v>
+        <v>1252</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17">
-        <v>1188</v>
+        <v>1921</v>
       </c>
       <c r="G17">
-        <v>1252</v>
+        <v>1984</v>
       </c>
       <c r="H17">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="G18">
-        <v>1984</v>
+        <v>2006</v>
       </c>
       <c r="H18">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>316</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F19">
-        <v>1915</v>
+        <v>1882</v>
       </c>
       <c r="G19">
-        <v>2006</v>
+        <v>1942</v>
       </c>
       <c r="H19">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1878,77 +1752,77 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20">
-        <v>1882</v>
+        <v>1949</v>
       </c>
       <c r="G20">
-        <v>1942</v>
+        <v>2002</v>
       </c>
       <c r="H20">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s">
-        <v>316</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F21">
-        <v>1904</v>
+        <v>1945</v>
       </c>
       <c r="G21">
-        <v>1996</v>
+        <v>1981</v>
       </c>
       <c r="H21">
-        <v>92</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F22">
-        <v>1949</v>
+        <v>1934</v>
       </c>
       <c r="G22">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="H22">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1956,241 +1830,241 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>1945</v>
+        <v>1908</v>
       </c>
       <c r="G23">
-        <v>1981</v>
+        <v>1973</v>
       </c>
       <c r="H23">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" t="s">
-        <v>316</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F24">
-        <v>1934</v>
+        <v>1713</v>
       </c>
       <c r="G24">
-        <v>1996</v>
+        <v>1784</v>
       </c>
       <c r="H24">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F25">
-        <v>1908</v>
+        <v>1921</v>
       </c>
       <c r="G25">
-        <v>1973</v>
+        <v>1981</v>
       </c>
       <c r="H25">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
         <v>59</v>
       </c>
-      <c r="B26" t="s">
-        <v>316</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F26">
-        <v>1713</v>
+        <v>1821</v>
       </c>
       <c r="G26">
-        <v>1784</v>
+        <v>1896</v>
       </c>
       <c r="H26">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F27">
-        <v>1921</v>
+        <v>1911</v>
       </c>
       <c r="G27">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="H27">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
-        <v>316</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>63</v>
-      </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F28">
-        <v>1821</v>
+        <v>1854</v>
       </c>
       <c r="G28">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="H28">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>1911</v>
+        <v>1821</v>
       </c>
       <c r="G29">
-        <v>1982</v>
+        <v>1867</v>
       </c>
       <c r="H29">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
       <c r="F30">
-        <v>1854</v>
+        <v>1783</v>
       </c>
       <c r="G30">
-        <v>1891</v>
+        <v>1842</v>
       </c>
       <c r="H30">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F31">
-        <v>1700</v>
+        <v>1938</v>
       </c>
       <c r="G31">
-        <v>1755</v>
+        <v>1980</v>
       </c>
       <c r="H31">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -2199,24 +2073,24 @@
         <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F32">
+        <v>1769</v>
+      </c>
+      <c r="G32">
         <v>1821</v>
       </c>
-      <c r="G32">
-        <v>1867</v>
-      </c>
       <c r="H32">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -2225,24 +2099,24 @@
         <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F33">
-        <v>1783</v>
+        <v>1822</v>
       </c>
       <c r="G33">
-        <v>1842</v>
+        <v>1895</v>
       </c>
       <c r="H33">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -2254,608 +2128,611 @@
         <v>12</v>
       </c>
       <c r="F34">
-        <v>1840</v>
+        <v>1802</v>
       </c>
       <c r="G34">
-        <v>1902</v>
+        <v>1885</v>
       </c>
       <c r="H34">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
       </c>
       <c r="F35">
-        <v>1938</v>
+        <v>1807</v>
       </c>
       <c r="G35">
-        <v>1980</v>
+        <v>1882</v>
       </c>
       <c r="H35">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F36">
-        <v>1769</v>
+        <v>1712</v>
       </c>
       <c r="G36">
-        <v>1821</v>
+        <v>1779</v>
       </c>
       <c r="H36">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F37">
-        <v>1822</v>
+        <v>1719</v>
       </c>
       <c r="G37">
-        <v>1895</v>
+        <v>1786</v>
       </c>
       <c r="H37">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F38">
-        <v>1802</v>
+        <v>1896</v>
       </c>
       <c r="G38">
-        <v>1885</v>
+        <v>1986</v>
       </c>
       <c r="H38">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
         <v>77</v>
       </c>
-      <c r="B39" t="s">
-        <v>316</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>78</v>
-      </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F39">
-        <v>1807</v>
+        <v>1473</v>
       </c>
       <c r="G39">
-        <v>1882</v>
+        <v>1543</v>
       </c>
       <c r="H39">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>272</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
         <v>79</v>
       </c>
-      <c r="B40" t="s">
-        <v>316</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" t="s">
-        <v>12</v>
-      </c>
       <c r="F40">
-        <v>1712</v>
+        <v>1899</v>
       </c>
       <c r="G40">
-        <v>1779</v>
+        <v>1943</v>
       </c>
       <c r="H40">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
         <v>81</v>
       </c>
-      <c r="B41" t="s">
-        <v>316</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>80</v>
-      </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F41">
-        <v>1719</v>
+        <v>-69</v>
       </c>
       <c r="G41">
-        <v>1786</v>
+        <v>-30</v>
       </c>
       <c r="H41">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F42">
-        <v>1896</v>
+        <v>1807</v>
       </c>
       <c r="G42">
-        <v>1986</v>
+        <v>1887</v>
       </c>
       <c r="H42">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F43">
-        <v>1877</v>
+        <v>1745</v>
       </c>
       <c r="G43">
-        <v>1960</v>
+        <v>1827</v>
       </c>
       <c r="H43">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F44">
-        <v>1524</v>
+        <v>1564</v>
       </c>
       <c r="G44">
-        <v>1580</v>
+        <v>1616</v>
       </c>
       <c r="H44">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="F45">
-        <v>1473</v>
+        <v>1162</v>
       </c>
       <c r="G45">
-        <v>1543</v>
+        <v>1227</v>
       </c>
       <c r="H45">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="F46">
-        <v>1899</v>
+        <v>1639</v>
       </c>
       <c r="G46">
-        <v>1943</v>
+        <v>1699</v>
       </c>
       <c r="H46">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="F47">
-        <v>-69</v>
+        <v>1606</v>
       </c>
       <c r="G47">
-        <v>-30</v>
+        <v>1684</v>
       </c>
       <c r="H47">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F48">
-        <v>1807</v>
+        <v>1844</v>
       </c>
       <c r="G48">
-        <v>1887</v>
+        <v>1896</v>
       </c>
       <c r="H48">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F49">
-        <v>1775</v>
+        <v>1452</v>
       </c>
       <c r="G49">
-        <v>1836</v>
+        <v>1519</v>
       </c>
       <c r="H49">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F50">
-        <v>1745</v>
+        <v>1926</v>
       </c>
       <c r="G50">
-        <v>1827</v>
+        <v>2016</v>
       </c>
       <c r="H50">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F51">
-        <v>1622</v>
+        <v>1888</v>
       </c>
       <c r="G51">
-        <v>1673</v>
+        <v>1946</v>
       </c>
       <c r="H51">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E52" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F52">
-        <v>1564</v>
+        <v>1891</v>
       </c>
       <c r="G52">
-        <v>1616</v>
+        <v>1940</v>
       </c>
       <c r="H52">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="F53">
-        <v>1162</v>
+        <v>1360</v>
       </c>
       <c r="G53">
-        <v>1227</v>
+        <v>1428</v>
       </c>
       <c r="H53">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F54">
-        <v>1639</v>
+        <v>1879</v>
       </c>
       <c r="G54">
-        <v>1699</v>
+        <v>1941</v>
       </c>
       <c r="H54">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F55">
-        <v>1606</v>
+        <v>1868</v>
       </c>
       <c r="G55">
-        <v>1684</v>
+        <v>1950</v>
       </c>
       <c r="H55">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
       </c>
       <c r="F56">
-        <v>1844</v>
+        <v>1431</v>
       </c>
       <c r="G56">
-        <v>1896</v>
+        <v>1463</v>
       </c>
       <c r="H56">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F57">
-        <v>1452</v>
+        <v>1932</v>
       </c>
       <c r="G57">
-        <v>1519</v>
+        <v>1986</v>
       </c>
       <c r="H57">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2863,7 +2740,7 @@
         <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -2872,16 +2749,16 @@
         <v>110</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>1926</v>
+        <v>1879</v>
       </c>
       <c r="G58">
-        <v>2016</v>
+        <v>1953</v>
       </c>
       <c r="H58">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2889,25 +2766,25 @@
         <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F59">
-        <v>1842</v>
+        <v>1858</v>
       </c>
       <c r="G59">
-        <v>1898</v>
+        <v>1930</v>
       </c>
       <c r="H59">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2915,888 +2792,891 @@
         <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F60">
-        <v>1898</v>
+        <v>-427</v>
       </c>
       <c r="G60">
-        <v>1980</v>
+        <v>-347</v>
       </c>
       <c r="H60">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F61">
-        <v>1888</v>
+        <v>1940</v>
       </c>
       <c r="G61">
-        <v>1946</v>
+        <v>1996</v>
       </c>
       <c r="H61">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
       </c>
       <c r="F62">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="G62">
-        <v>1940</v>
+        <v>1977</v>
       </c>
       <c r="H62">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
       </c>
       <c r="F63">
-        <v>1360</v>
+        <v>1883</v>
       </c>
       <c r="G63">
-        <v>1428</v>
+        <v>1924</v>
       </c>
       <c r="H63">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F64">
-        <v>1879</v>
+        <v>1899</v>
       </c>
       <c r="G64">
-        <v>1941</v>
+        <v>1986</v>
       </c>
       <c r="H64">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="F65">
-        <v>1868</v>
+        <v>-470</v>
       </c>
       <c r="G65">
-        <v>1950</v>
+        <v>-399</v>
       </c>
       <c r="H65">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
       </c>
       <c r="F66">
-        <v>1431</v>
+        <v>1937</v>
       </c>
       <c r="G66">
-        <v>1463</v>
+        <v>2012</v>
       </c>
       <c r="H66">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F67">
-        <v>1932</v>
+        <v>1872</v>
       </c>
       <c r="G67">
-        <v>1986</v>
+        <v>1928</v>
       </c>
       <c r="H67">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F68">
-        <v>1879</v>
+        <v>1927</v>
       </c>
       <c r="G68">
-        <v>1953</v>
+        <v>2010</v>
       </c>
       <c r="H68">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F69">
-        <v>1858</v>
+        <v>1890</v>
       </c>
       <c r="G69">
-        <v>1930</v>
+        <v>1974</v>
       </c>
       <c r="H69">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F70">
-        <v>-427</v>
+        <v>1642</v>
       </c>
       <c r="G70">
-        <v>-347</v>
+        <v>1727</v>
       </c>
       <c r="H70">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F71">
-        <v>1940</v>
+        <v>1879</v>
       </c>
       <c r="G71">
-        <v>1996</v>
+        <v>1955</v>
       </c>
       <c r="H71">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
       </c>
+      <c r="D72" t="s">
+        <v>133</v>
+      </c>
       <c r="E72" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="F72">
-        <v>-384</v>
+        <v>1798</v>
       </c>
       <c r="G72">
-        <v>-322</v>
+        <v>1834</v>
       </c>
       <c r="H72">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F73">
-        <v>1889</v>
+        <v>1908</v>
       </c>
       <c r="G73">
-        <v>1977</v>
+        <v>1991</v>
       </c>
       <c r="H73">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F74">
-        <v>1867</v>
+        <v>1879</v>
       </c>
       <c r="G74">
-        <v>1935</v>
+        <v>1954</v>
       </c>
       <c r="H74">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B75" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F75">
-        <v>1892</v>
+        <v>1920</v>
       </c>
       <c r="G75">
-        <v>1973</v>
+        <v>2005</v>
       </c>
       <c r="H75">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B76" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
       </c>
       <c r="F76">
-        <v>1883</v>
+        <v>1821</v>
       </c>
       <c r="G76">
-        <v>1924</v>
+        <v>1881</v>
       </c>
       <c r="H76">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B77" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E77" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F77">
-        <v>1899</v>
+        <v>1921</v>
       </c>
       <c r="G77">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="H77">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B78" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E78" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="F78">
-        <v>-470</v>
+        <v>1869</v>
       </c>
       <c r="G78">
-        <v>-399</v>
+        <v>1948</v>
       </c>
       <c r="H78">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F79">
-        <v>1937</v>
+        <v>1809</v>
       </c>
       <c r="G79">
-        <v>2012</v>
+        <v>1882</v>
       </c>
       <c r="H79">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E80" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F80">
-        <v>1872</v>
+        <v>1707</v>
       </c>
       <c r="G80">
-        <v>1928</v>
+        <v>1778</v>
       </c>
       <c r="H80">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F81">
-        <v>1927</v>
+        <v>1868</v>
       </c>
       <c r="G81">
-        <v>2010</v>
+        <v>1947</v>
       </c>
       <c r="H81">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B82" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F82">
-        <v>1890</v>
+        <v>1896</v>
       </c>
       <c r="G82">
-        <v>1974</v>
+        <v>1940</v>
       </c>
       <c r="H82">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B83" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E83" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F83">
-        <v>1642</v>
+        <v>1785</v>
       </c>
       <c r="G83">
-        <v>1727</v>
+        <v>1873</v>
       </c>
       <c r="H83">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="E84" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F84">
-        <v>1879</v>
+        <v>1265</v>
       </c>
       <c r="G84">
-        <v>1955</v>
+        <v>1321</v>
       </c>
       <c r="H84">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="E85" t="s">
         <v>12</v>
       </c>
       <c r="F85">
-        <v>1798</v>
+        <v>1683</v>
       </c>
       <c r="G85">
-        <v>1834</v>
+        <v>1764</v>
       </c>
       <c r="H85">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F86">
-        <v>1908</v>
+        <v>1917</v>
       </c>
       <c r="G86">
-        <v>1991</v>
+        <v>1984</v>
       </c>
       <c r="H86">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C87" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
       </c>
       <c r="F87">
-        <v>1879</v>
+        <v>1803</v>
       </c>
       <c r="G87">
-        <v>1954</v>
+        <v>1869</v>
       </c>
       <c r="H87">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B88" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="E88" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F88">
-        <v>1920</v>
+        <v>1875</v>
       </c>
       <c r="G88">
-        <v>2005</v>
+        <v>1937</v>
       </c>
       <c r="H88">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B89" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E89" t="s">
         <v>12</v>
       </c>
       <c r="F89">
-        <v>1821</v>
+        <v>1632</v>
       </c>
       <c r="G89">
-        <v>1881</v>
+        <v>1687</v>
       </c>
       <c r="H89">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B90" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F90">
-        <v>1921</v>
+        <v>1940</v>
       </c>
       <c r="G90">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="H90">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E91" t="s">
         <v>12</v>
       </c>
       <c r="F91">
-        <v>1869</v>
+        <v>1822</v>
       </c>
       <c r="G91">
-        <v>1948</v>
+        <v>1910</v>
       </c>
       <c r="H91">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B92" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F92">
-        <v>1800</v>
+        <v>1920</v>
       </c>
       <c r="G92">
-        <v>1849</v>
+        <v>2016</v>
       </c>
       <c r="H92">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B93" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E93" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F93">
-        <v>1809</v>
+        <v>1918</v>
       </c>
       <c r="G93">
-        <v>1882</v>
+        <v>2012</v>
       </c>
       <c r="H93">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B94" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
@@ -3805,68 +3685,68 @@
         <v>167</v>
       </c>
       <c r="E94" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F94">
-        <v>1707</v>
+        <v>1928</v>
       </c>
       <c r="G94">
-        <v>1778</v>
+        <v>2010</v>
       </c>
       <c r="H94">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B95" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E95" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F95">
-        <v>1868</v>
+        <v>1896</v>
       </c>
       <c r="G95">
-        <v>1947</v>
+        <v>1990</v>
       </c>
       <c r="H95">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B96" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
       </c>
       <c r="F96">
-        <v>1896</v>
+        <v>1908</v>
       </c>
       <c r="G96">
-        <v>1940</v>
+        <v>2001</v>
       </c>
       <c r="H96">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -3874,207 +3754,207 @@
         <v>172</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F97">
-        <v>1785</v>
+        <v>1898</v>
       </c>
       <c r="G97">
-        <v>1873</v>
+        <v>1988</v>
       </c>
       <c r="H97">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B98" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F98">
-        <v>1265</v>
+        <v>1891</v>
       </c>
       <c r="G98">
-        <v>1321</v>
+        <v>1972</v>
       </c>
       <c r="H98">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B99" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F99">
-        <v>1683</v>
+        <v>1887</v>
       </c>
       <c r="G99">
-        <v>1764</v>
+        <v>1978</v>
       </c>
       <c r="H99">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B100" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C100" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E100" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F100">
-        <v>1917</v>
+        <v>1874</v>
       </c>
       <c r="G100">
-        <v>1984</v>
+        <v>1961</v>
       </c>
       <c r="H100">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B101" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F101">
-        <v>1803</v>
+        <v>1877</v>
       </c>
       <c r="G101">
-        <v>1869</v>
+        <v>1959</v>
       </c>
       <c r="H101">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B102" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F102">
-        <v>1875</v>
+        <v>1938</v>
       </c>
       <c r="G102">
-        <v>1937</v>
+        <v>2018</v>
       </c>
       <c r="H102">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" t="s">
+        <v>272</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
         <v>180</v>
       </c>
-      <c r="B103" t="s">
-        <v>316</v>
-      </c>
-      <c r="C103" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" t="s">
-        <v>181</v>
-      </c>
       <c r="E103" t="s">
         <v>12</v>
       </c>
       <c r="F103">
-        <v>1632</v>
+        <v>1922</v>
       </c>
       <c r="G103">
-        <v>1687</v>
+        <v>2016</v>
       </c>
       <c r="H103">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" t="s">
+        <v>272</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
         <v>182</v>
       </c>
-      <c r="B104" t="s">
-        <v>316</v>
-      </c>
-      <c r="C104" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" t="s">
-        <v>11</v>
-      </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F104">
-        <v>1940</v>
+        <v>1918</v>
       </c>
       <c r="G104">
-        <v>1980</v>
+        <v>2007</v>
       </c>
       <c r="H104">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -4082,48 +3962,48 @@
         <v>183</v>
       </c>
       <c r="B105" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F105">
-        <v>1822</v>
+        <v>1896</v>
       </c>
       <c r="G105">
-        <v>1910</v>
+        <v>1968</v>
       </c>
       <c r="H105">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>184</v>
+      </c>
+      <c r="B106" t="s">
+        <v>272</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
         <v>185</v>
-      </c>
-      <c r="B106" t="s">
-        <v>316</v>
-      </c>
-      <c r="C106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" t="s">
-        <v>186</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
       </c>
       <c r="F106">
-        <v>1920</v>
+        <v>1900</v>
       </c>
       <c r="G106">
-        <v>2016</v>
+        <v>1996</v>
       </c>
       <c r="H106">
         <v>96</v>
@@ -4131,28 +4011,28 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>186</v>
+      </c>
+      <c r="B107" t="s">
+        <v>272</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s">
         <v>187</v>
       </c>
-      <c r="B107" t="s">
-        <v>316</v>
-      </c>
-      <c r="C107" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" t="s">
-        <v>186</v>
-      </c>
       <c r="E107" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F107">
-        <v>1918</v>
+        <v>1934</v>
       </c>
       <c r="G107">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="H107">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -4160,25 +4040,25 @@
         <v>188</v>
       </c>
       <c r="B108" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="E108" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F108">
-        <v>1928</v>
+        <v>1623</v>
       </c>
       <c r="G108">
-        <v>2010</v>
+        <v>1662</v>
       </c>
       <c r="H108">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -4186,25 +4066,25 @@
         <v>189</v>
       </c>
       <c r="B109" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
       </c>
       <c r="F109">
-        <v>1896</v>
+        <v>1849</v>
       </c>
       <c r="G109">
-        <v>1990</v>
+        <v>1910</v>
       </c>
       <c r="H109">
-        <v>94</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -4212,969 +4092,969 @@
         <v>190</v>
       </c>
       <c r="B110" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
       </c>
       <c r="F110">
-        <v>1908</v>
+        <v>1937</v>
       </c>
       <c r="G110">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="H110">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B111" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E111" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
       <c r="F111">
-        <v>1898</v>
+        <v>1957</v>
       </c>
       <c r="G111">
-        <v>1988</v>
+        <v>2011</v>
       </c>
       <c r="H111">
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B112" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
       </c>
       <c r="F112">
-        <v>1891</v>
+        <v>1845</v>
       </c>
       <c r="G112">
-        <v>1972</v>
+        <v>1922</v>
       </c>
       <c r="H112">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B113" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E113" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F113">
-        <v>1887</v>
+        <v>1899</v>
       </c>
       <c r="G113">
-        <v>1978</v>
+        <v>1992</v>
       </c>
       <c r="H113">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B114" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="E114" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F114">
-        <v>1874</v>
+        <v>1809</v>
       </c>
       <c r="G114">
-        <v>1961</v>
+        <v>1880</v>
       </c>
       <c r="H114">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B115" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
       </c>
       <c r="F115">
-        <v>1877</v>
+        <v>1799</v>
       </c>
       <c r="G115">
-        <v>1959</v>
+        <v>1866</v>
       </c>
       <c r="H115">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B116" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
       </c>
       <c r="F116">
-        <v>1938</v>
+        <v>1790</v>
       </c>
       <c r="G116">
-        <v>2018</v>
+        <v>1876</v>
       </c>
       <c r="H116">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B117" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F117">
-        <v>1922</v>
+        <v>1785</v>
       </c>
       <c r="G117">
-        <v>2016</v>
+        <v>1858</v>
       </c>
       <c r="H117">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B118" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="E118" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F118">
-        <v>1918</v>
+        <v>1685</v>
       </c>
       <c r="G118">
-        <v>2007</v>
+        <v>1750</v>
       </c>
       <c r="H118">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B119" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="E119" t="s">
         <v>12</v>
       </c>
       <c r="F119">
-        <v>1905</v>
+        <v>1678</v>
       </c>
       <c r="G119">
-        <v>1961</v>
+        <v>1741</v>
       </c>
       <c r="H119">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B120" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="F120">
-        <v>1810</v>
+        <v>1947</v>
       </c>
       <c r="G120">
-        <v>1849</v>
+        <v>2009</v>
       </c>
       <c r="H120">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B121" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
       </c>
       <c r="F121">
-        <v>1896</v>
+        <v>1870</v>
       </c>
       <c r="G121">
-        <v>1968</v>
+        <v>1924</v>
       </c>
       <c r="H121">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B122" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="E122" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F122">
-        <v>1900</v>
+        <v>1867</v>
       </c>
       <c r="G122">
-        <v>1996</v>
+        <v>1936</v>
       </c>
       <c r="H122">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B123" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F123">
-        <v>1934</v>
+        <v>1917</v>
       </c>
       <c r="G123">
-        <v>2016</v>
+        <v>1989</v>
       </c>
       <c r="H123">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B124" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E124" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F124">
-        <v>1623</v>
+        <v>1898</v>
       </c>
       <c r="G124">
-        <v>1662</v>
+        <v>1972</v>
       </c>
       <c r="H124">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B125" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D125" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
       </c>
       <c r="F125">
-        <v>1835</v>
+        <v>1933</v>
       </c>
       <c r="G125">
-        <v>1919</v>
+        <v>2009</v>
       </c>
       <c r="H125">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B126" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E126" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F126">
-        <v>1849</v>
+        <v>1909</v>
       </c>
       <c r="G126">
-        <v>1910</v>
+        <v>1945</v>
       </c>
       <c r="H126">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B127" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="E127" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="F127">
-        <v>1854</v>
+        <v>1480</v>
       </c>
       <c r="G127">
-        <v>1916</v>
+        <v>1521</v>
       </c>
       <c r="H127">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B128" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
       </c>
       <c r="F128">
-        <v>1937</v>
+        <v>1878</v>
       </c>
       <c r="G128">
-        <v>2006</v>
+        <v>1944</v>
       </c>
       <c r="H128">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B129" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="E129" t="s">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="F129">
-        <v>1957</v>
+        <v>1813</v>
       </c>
       <c r="G129">
-        <v>2011</v>
+        <v>1883</v>
       </c>
       <c r="H129">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B130" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="E130" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F130">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="G130">
-        <v>1902</v>
+        <v>1894</v>
       </c>
       <c r="H130">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B131" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D131" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E131" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F131">
-        <v>1850</v>
+        <v>1943</v>
       </c>
       <c r="G131">
-        <v>1901</v>
+        <v>1970</v>
       </c>
       <c r="H131">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B132" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="E132" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F132">
-        <v>1845</v>
+        <v>-1303</v>
       </c>
       <c r="G132">
-        <v>1922</v>
+        <v>-1213</v>
       </c>
       <c r="H132">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B133" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="E133" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="F133">
-        <v>1840</v>
+        <v>-1217</v>
       </c>
       <c r="G133">
-        <v>1891</v>
+        <v>-1155</v>
       </c>
       <c r="H133">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B134" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="E134" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F134">
-        <v>1825</v>
+        <v>-1200</v>
       </c>
       <c r="G134">
-        <v>1889</v>
+        <v>-1149</v>
       </c>
       <c r="H134">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B135" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E135" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="F135">
-        <v>1825</v>
+        <v>1869</v>
       </c>
       <c r="G135">
-        <v>1884</v>
+        <v>1948</v>
       </c>
       <c r="H135">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B136" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E136" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F136">
-        <v>1899</v>
+        <v>1789</v>
       </c>
       <c r="G136">
-        <v>1992</v>
+        <v>1854</v>
       </c>
       <c r="H136">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B137" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="E137" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F137">
-        <v>1825</v>
+        <v>1737</v>
       </c>
       <c r="G137">
-        <v>1877</v>
+        <v>1798</v>
       </c>
       <c r="H137">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B138" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E138" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="F138">
-        <v>1801</v>
+        <v>1930</v>
       </c>
       <c r="G138">
-        <v>1889</v>
+        <v>2012</v>
       </c>
       <c r="H138">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B139" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E139" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F139">
-        <v>1809</v>
+        <v>1902</v>
       </c>
       <c r="G139">
-        <v>1880</v>
+        <v>1974</v>
       </c>
       <c r="H139">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="B140" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F140">
-        <v>1799</v>
+        <v>1905</v>
       </c>
       <c r="G140">
-        <v>1866</v>
+        <v>1981</v>
       </c>
       <c r="H140">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B141" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E141" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F141">
-        <v>1786</v>
+        <v>1902</v>
       </c>
       <c r="G141">
-        <v>1854</v>
+        <v>1985</v>
       </c>
       <c r="H141">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B142" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="E142" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F142">
-        <v>1790</v>
+        <v>1923</v>
       </c>
       <c r="G142">
-        <v>1876</v>
+        <v>1999</v>
       </c>
       <c r="H142">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B143" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="E143" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F143">
-        <v>1787</v>
+        <v>1929</v>
       </c>
       <c r="G143">
-        <v>1851</v>
+        <v>1978</v>
       </c>
       <c r="H143">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B144" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E144" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F144">
-        <v>1785</v>
+        <v>1928</v>
       </c>
       <c r="G144">
-        <v>1858</v>
+        <v>1991</v>
       </c>
       <c r="H144">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B145" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="E145" t="s">
         <v>12</v>
       </c>
       <c r="F145">
-        <v>1685</v>
+        <v>1917</v>
       </c>
       <c r="G145">
-        <v>1750</v>
+        <v>1996</v>
       </c>
       <c r="H145">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B146" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>237</v>
+        <v>14</v>
       </c>
       <c r="E146" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="F146">
-        <v>1678</v>
+        <v>1922</v>
       </c>
       <c r="G146">
-        <v>1741</v>
+        <v>1999</v>
       </c>
       <c r="H146">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B147" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
@@ -5183,486 +5063,492 @@
         <v>14</v>
       </c>
       <c r="E147" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="F147">
-        <v>1947</v>
+        <v>1900</v>
       </c>
       <c r="G147">
-        <v>2009</v>
+        <v>1971</v>
       </c>
       <c r="H147">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B148" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E148" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F148">
-        <v>1870</v>
+        <v>1924</v>
       </c>
       <c r="G148">
-        <v>1924</v>
+        <v>2018</v>
       </c>
       <c r="H148">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B149" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C149" t="s">
         <v>7</v>
       </c>
       <c r="D149" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="E149" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F149">
-        <v>1469</v>
+        <v>1428</v>
       </c>
       <c r="G149">
-        <v>1527</v>
+        <v>1502</v>
       </c>
       <c r="H149">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B150" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
       </c>
+      <c r="D150" t="s">
+        <v>23</v>
+      </c>
       <c r="E150" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="F150">
-        <v>1304</v>
+        <v>1467</v>
       </c>
       <c r="G150">
-        <v>1374</v>
+        <v>1518</v>
       </c>
       <c r="H150">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B151" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
       </c>
+      <c r="D151" t="s">
+        <v>246</v>
+      </c>
       <c r="E151" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F151">
-        <v>1313</v>
+        <v>1469</v>
       </c>
       <c r="G151">
-        <v>1375</v>
+        <v>1544</v>
       </c>
       <c r="H151">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B152" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
       </c>
       <c r="D152" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="E152" t="s">
         <v>12</v>
       </c>
       <c r="F152">
-        <v>1867</v>
+        <v>1952</v>
       </c>
       <c r="G152">
-        <v>1936</v>
+        <v>1986</v>
       </c>
       <c r="H152">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B153" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D153" t="s">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="E153" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F153">
-        <v>1917</v>
+        <v>1930</v>
       </c>
       <c r="G153">
-        <v>1989</v>
+        <v>1997</v>
       </c>
       <c r="H153">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B154" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>46</v>
+        <v>237</v>
       </c>
       <c r="E154" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F154">
-        <v>1898</v>
+        <v>1868</v>
       </c>
       <c r="G154">
-        <v>1972</v>
+        <v>1944</v>
       </c>
       <c r="H154">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B155" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C155" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="E155" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F155">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="G155">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="H155">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B156" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
       </c>
       <c r="D156" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="E156" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F156">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="G156">
-        <v>1945</v>
+        <v>1950</v>
       </c>
       <c r="H156">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B157" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="E157" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F157">
-        <v>1480</v>
+        <v>1906</v>
       </c>
       <c r="G157">
-        <v>1521</v>
+        <v>1966</v>
       </c>
       <c r="H157">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B158" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="E158" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F158">
-        <v>1861</v>
+        <v>1890</v>
       </c>
       <c r="G158">
-        <v>1896</v>
+        <v>1970</v>
       </c>
       <c r="H158">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B159" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>247</v>
+        <v>121</v>
       </c>
       <c r="E159" t="s">
-        <v>9</v>
+        <v>259</v>
       </c>
       <c r="F159">
-        <v>1878</v>
+        <v>1911</v>
       </c>
       <c r="G159">
-        <v>1944</v>
+        <v>1995</v>
       </c>
       <c r="H159">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B160" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
       </c>
       <c r="D160" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="E160" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="F160">
-        <v>1813</v>
+        <v>1918</v>
       </c>
       <c r="G160">
-        <v>1883</v>
+        <v>1955</v>
       </c>
       <c r="H160">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B161" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="F161">
-        <v>1850</v>
+        <v>1929</v>
       </c>
       <c r="G161">
-        <v>1894</v>
+        <v>1959</v>
       </c>
       <c r="H161">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B162" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C162" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D162" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F162">
-        <v>1943</v>
+        <v>1932</v>
       </c>
       <c r="G162">
-        <v>1970</v>
+        <v>2019</v>
       </c>
       <c r="H162">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B163" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
       </c>
       <c r="D163" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E163" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F163">
-        <v>-1303</v>
+        <v>1854</v>
       </c>
       <c r="G163">
-        <v>-1213</v>
+        <v>1923</v>
       </c>
       <c r="H163">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B164" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>90</v>
+        <v>267</v>
       </c>
       <c r="E164" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F164">
-        <v>-1217</v>
+        <v>1926</v>
       </c>
       <c r="G164">
-        <v>-1155</v>
+        <v>2014</v>
       </c>
       <c r="H164">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B165" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
       </c>
       <c r="D165" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="E165" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F165">
-        <v>-1200</v>
+        <v>1911</v>
       </c>
       <c r="G165">
-        <v>-1149</v>
+        <v>1974</v>
       </c>
       <c r="H165">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B166" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
@@ -5671,1026 +5557,67 @@
         <v>23</v>
       </c>
       <c r="E166" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="F166">
-        <v>1869</v>
+        <v>1944</v>
       </c>
       <c r="G166">
-        <v>1948</v>
+        <v>1986</v>
       </c>
       <c r="H166">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B167" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
       </c>
       <c r="D167" t="s">
-        <v>265</v>
+        <v>23</v>
       </c>
       <c r="E167" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F167">
-        <v>1789</v>
+        <v>1939</v>
       </c>
       <c r="G167">
-        <v>1854</v>
+        <v>1988</v>
       </c>
       <c r="H167">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B168" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C168" t="s">
         <v>7</v>
       </c>
       <c r="D168" t="s">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="E168" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F168">
-        <v>1737</v>
+        <v>1929</v>
       </c>
       <c r="G168">
-        <v>1798</v>
+        <v>1988</v>
       </c>
       <c r="H168">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>268</v>
-      </c>
-      <c r="B169" t="s">
-        <v>316</v>
-      </c>
-      <c r="C169" t="s">
-        <v>7</v>
-      </c>
-      <c r="D169" t="s">
-        <v>14</v>
-      </c>
-      <c r="E169" t="s">
-        <v>269</v>
-      </c>
-      <c r="F169">
-        <v>1930</v>
-      </c>
-      <c r="G169">
-        <v>2012</v>
-      </c>
-      <c r="H169">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>270</v>
-      </c>
-      <c r="B170" t="s">
-        <v>316</v>
-      </c>
-      <c r="C170" t="s">
-        <v>7</v>
-      </c>
-      <c r="D170" t="s">
-        <v>14</v>
-      </c>
-      <c r="E170" t="s">
-        <v>12</v>
-      </c>
-      <c r="F170">
-        <v>1902</v>
-      </c>
-      <c r="G170">
-        <v>1974</v>
-      </c>
-      <c r="H170">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>271</v>
-      </c>
-      <c r="B171" t="s">
-        <v>316</v>
-      </c>
-      <c r="C171" t="s">
-        <v>7</v>
-      </c>
-      <c r="D171" t="s">
-        <v>167</v>
-      </c>
-      <c r="E171" t="s">
-        <v>47</v>
-      </c>
-      <c r="F171">
-        <v>1870</v>
-      </c>
-      <c r="G171">
-        <v>1964</v>
-      </c>
-      <c r="H171">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>272</v>
-      </c>
-      <c r="B172" t="s">
-        <v>316</v>
-      </c>
-      <c r="C172" t="s">
-        <v>7</v>
-      </c>
-      <c r="D172" t="s">
-        <v>11</v>
-      </c>
-      <c r="E172" t="s">
-        <v>47</v>
-      </c>
-      <c r="F172">
-        <v>1905</v>
-      </c>
-      <c r="G172">
-        <v>1981</v>
-      </c>
-      <c r="H172">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>273</v>
-      </c>
-      <c r="B173" t="s">
-        <v>316</v>
-      </c>
-      <c r="C173" t="s">
-        <v>42</v>
-      </c>
-      <c r="D173" t="s">
-        <v>23</v>
-      </c>
-      <c r="E173" t="s">
-        <v>12</v>
-      </c>
-      <c r="F173">
-        <v>1915</v>
-      </c>
-      <c r="G173">
-        <v>1963</v>
-      </c>
-      <c r="H173">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>274</v>
-      </c>
-      <c r="B174" t="s">
-        <v>316</v>
-      </c>
-      <c r="C174" t="s">
-        <v>7</v>
-      </c>
-      <c r="D174" t="s">
-        <v>46</v>
-      </c>
-      <c r="E174" t="s">
-        <v>47</v>
-      </c>
-      <c r="F174">
-        <v>1902</v>
-      </c>
-      <c r="G174">
-        <v>1985</v>
-      </c>
-      <c r="H174">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>275</v>
-      </c>
-      <c r="B175" t="s">
-        <v>316</v>
-      </c>
-      <c r="C175" t="s">
-        <v>7</v>
-      </c>
-      <c r="D175" t="s">
-        <v>186</v>
-      </c>
-      <c r="E175" t="s">
-        <v>47</v>
-      </c>
-      <c r="F175">
-        <v>1923</v>
-      </c>
-      <c r="G175">
-        <v>1999</v>
-      </c>
-      <c r="H175">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>276</v>
-      </c>
-      <c r="B176" t="s">
-        <v>316</v>
-      </c>
-      <c r="C176" t="s">
-        <v>42</v>
-      </c>
-      <c r="D176" t="s">
-        <v>23</v>
-      </c>
-      <c r="E176" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176">
-        <v>1935</v>
-      </c>
-      <c r="G176">
-        <v>2004</v>
-      </c>
-      <c r="H176">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>277</v>
-      </c>
-      <c r="B177" t="s">
-        <v>316</v>
-      </c>
-      <c r="C177" t="s">
-        <v>7</v>
-      </c>
-      <c r="D177" t="s">
-        <v>278</v>
-      </c>
-      <c r="E177" t="s">
-        <v>12</v>
-      </c>
-      <c r="F177">
-        <v>1929</v>
-      </c>
-      <c r="G177">
-        <v>1978</v>
-      </c>
-      <c r="H177">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>279</v>
-      </c>
-      <c r="B178" t="s">
-        <v>316</v>
-      </c>
-      <c r="C178" t="s">
-        <v>7</v>
-      </c>
-      <c r="D178" t="s">
-        <v>23</v>
-      </c>
-      <c r="E178" t="s">
-        <v>12</v>
-      </c>
-      <c r="F178">
-        <v>1928</v>
-      </c>
-      <c r="G178">
-        <v>1991</v>
-      </c>
-      <c r="H178">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>280</v>
-      </c>
-      <c r="B179" t="s">
-        <v>316</v>
-      </c>
-      <c r="C179" t="s">
-        <v>42</v>
-      </c>
-      <c r="D179" t="s">
-        <v>14</v>
-      </c>
-      <c r="E179" t="s">
-        <v>12</v>
-      </c>
-      <c r="F179">
-        <v>1917</v>
-      </c>
-      <c r="G179">
-        <v>1996</v>
-      </c>
-      <c r="H179">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>281</v>
-      </c>
-      <c r="B180" t="s">
-        <v>316</v>
-      </c>
-      <c r="C180" t="s">
-        <v>42</v>
-      </c>
-      <c r="D180" t="s">
-        <v>14</v>
-      </c>
-      <c r="E180" t="s">
-        <v>282</v>
-      </c>
-      <c r="F180">
-        <v>1922</v>
-      </c>
-      <c r="G180">
-        <v>1999</v>
-      </c>
-      <c r="H180">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>283</v>
-      </c>
-      <c r="B181" t="s">
-        <v>316</v>
-      </c>
-      <c r="C181" t="s">
-        <v>7</v>
-      </c>
-      <c r="D181" t="s">
-        <v>14</v>
-      </c>
-      <c r="E181" t="s">
-        <v>12</v>
-      </c>
-      <c r="F181">
-        <v>1900</v>
-      </c>
-      <c r="G181">
-        <v>1971</v>
-      </c>
-      <c r="H181">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>284</v>
-      </c>
-      <c r="B182" t="s">
-        <v>316</v>
-      </c>
-      <c r="C182" t="s">
-        <v>7</v>
-      </c>
-      <c r="D182" t="s">
-        <v>285</v>
-      </c>
-      <c r="E182" t="s">
-        <v>12</v>
-      </c>
-      <c r="F182">
-        <v>1924</v>
-      </c>
-      <c r="G182">
-        <v>2018</v>
-      </c>
-      <c r="H182">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>286</v>
-      </c>
-      <c r="B183" t="s">
-        <v>316</v>
-      </c>
-      <c r="C183" t="s">
-        <v>7</v>
-      </c>
-      <c r="D183" t="s">
-        <v>287</v>
-      </c>
-      <c r="E183" t="s">
-        <v>9</v>
-      </c>
-      <c r="F183">
-        <v>1428</v>
-      </c>
-      <c r="G183">
-        <v>1502</v>
-      </c>
-      <c r="H183">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>288</v>
-      </c>
-      <c r="B184" t="s">
-        <v>316</v>
-      </c>
-      <c r="C184" t="s">
-        <v>7</v>
-      </c>
-      <c r="D184" t="s">
-        <v>23</v>
-      </c>
-      <c r="E184" t="s">
-        <v>289</v>
-      </c>
-      <c r="F184">
-        <v>1467</v>
-      </c>
-      <c r="G184">
-        <v>1518</v>
-      </c>
-      <c r="H184">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>290</v>
-      </c>
-      <c r="B185" t="s">
-        <v>316</v>
-      </c>
-      <c r="C185" t="s">
-        <v>7</v>
-      </c>
-      <c r="D185" t="s">
-        <v>287</v>
-      </c>
-      <c r="E185" t="s">
-        <v>9</v>
-      </c>
-      <c r="F185">
-        <v>1469</v>
-      </c>
-      <c r="G185">
-        <v>1544</v>
-      </c>
-      <c r="H185">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>291</v>
-      </c>
-      <c r="B186" t="s">
-        <v>316</v>
-      </c>
-      <c r="C186" t="s">
-        <v>7</v>
-      </c>
-      <c r="E186" t="s">
-        <v>9</v>
-      </c>
-      <c r="F186">
-        <v>1473</v>
-      </c>
-      <c r="G186">
-        <v>1528</v>
-      </c>
-      <c r="H186">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>292</v>
-      </c>
-      <c r="B187" t="s">
-        <v>316</v>
-      </c>
-      <c r="C187" t="s">
-        <v>7</v>
-      </c>
-      <c r="D187" t="s">
-        <v>23</v>
-      </c>
-      <c r="E187" t="s">
-        <v>12</v>
-      </c>
-      <c r="F187">
-        <v>1952</v>
-      </c>
-      <c r="G187">
-        <v>1986</v>
-      </c>
-      <c r="H187">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>293</v>
-      </c>
-      <c r="B188" t="s">
-        <v>316</v>
-      </c>
-      <c r="C188" t="s">
-        <v>42</v>
-      </c>
-      <c r="D188" t="s">
-        <v>23</v>
-      </c>
-      <c r="E188" t="s">
-        <v>12</v>
-      </c>
-      <c r="F188">
-        <v>1930</v>
-      </c>
-      <c r="G188">
-        <v>1997</v>
-      </c>
-      <c r="H188">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>294</v>
-      </c>
-      <c r="B189" t="s">
-        <v>316</v>
-      </c>
-      <c r="C189" t="s">
-        <v>7</v>
-      </c>
-      <c r="D189" t="s">
-        <v>278</v>
-      </c>
-      <c r="E189" t="s">
-        <v>57</v>
-      </c>
-      <c r="F189">
-        <v>1868</v>
-      </c>
-      <c r="G189">
-        <v>1944</v>
-      </c>
-      <c r="H189">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>295</v>
-      </c>
-      <c r="B190" t="s">
-        <v>316</v>
-      </c>
-      <c r="C190" t="s">
-        <v>7</v>
-      </c>
-      <c r="D190" t="s">
-        <v>14</v>
-      </c>
-      <c r="E190" t="s">
-        <v>47</v>
-      </c>
-      <c r="F190">
-        <v>1928</v>
-      </c>
-      <c r="G190">
-        <v>1999</v>
-      </c>
-      <c r="H190">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>296</v>
-      </c>
-      <c r="B191" t="s">
-        <v>316</v>
-      </c>
-      <c r="C191" t="s">
-        <v>7</v>
-      </c>
-      <c r="D191" t="s">
-        <v>186</v>
-      </c>
-      <c r="E191" t="s">
-        <v>57</v>
-      </c>
-      <c r="F191">
-        <v>1908</v>
-      </c>
-      <c r="G191">
-        <v>1950</v>
-      </c>
-      <c r="H191">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>297</v>
-      </c>
-      <c r="B192" t="s">
-        <v>316</v>
-      </c>
-      <c r="C192" t="s">
-        <v>7</v>
-      </c>
-      <c r="D192" t="s">
-        <v>23</v>
-      </c>
-      <c r="E192" t="s">
-        <v>9</v>
-      </c>
-      <c r="F192">
-        <v>1916</v>
-      </c>
-      <c r="G192">
-        <v>1996</v>
-      </c>
-      <c r="H192">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>298</v>
-      </c>
-      <c r="B193" t="s">
-        <v>316</v>
-      </c>
-      <c r="C193" t="s">
-        <v>7</v>
-      </c>
-      <c r="D193" t="s">
-        <v>186</v>
-      </c>
-      <c r="E193" t="s">
-        <v>299</v>
-      </c>
-      <c r="F193">
-        <v>1906</v>
-      </c>
-      <c r="G193">
-        <v>1966</v>
-      </c>
-      <c r="H193">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>300</v>
-      </c>
-      <c r="B194" t="s">
-        <v>316</v>
-      </c>
-      <c r="C194" t="s">
-        <v>7</v>
-      </c>
-      <c r="D194" t="s">
-        <v>23</v>
-      </c>
-      <c r="E194" t="s">
-        <v>9</v>
-      </c>
-      <c r="F194">
-        <v>1890</v>
-      </c>
-      <c r="G194">
-        <v>1970</v>
-      </c>
-      <c r="H194">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>301</v>
-      </c>
-      <c r="B195" t="s">
-        <v>316</v>
-      </c>
-      <c r="C195" t="s">
-        <v>7</v>
-      </c>
-      <c r="D195" t="s">
-        <v>138</v>
-      </c>
-      <c r="E195" t="s">
-        <v>302</v>
-      </c>
-      <c r="F195">
-        <v>1911</v>
-      </c>
-      <c r="G195">
-        <v>1995</v>
-      </c>
-      <c r="H195">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>303</v>
-      </c>
-      <c r="B196" t="s">
-        <v>316</v>
-      </c>
-      <c r="C196" t="s">
-        <v>7</v>
-      </c>
-      <c r="D196" t="s">
-        <v>186</v>
-      </c>
-      <c r="E196" t="s">
-        <v>304</v>
-      </c>
-      <c r="F196">
-        <v>1918</v>
-      </c>
-      <c r="G196">
-        <v>1955</v>
-      </c>
-      <c r="H196">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>305</v>
-      </c>
-      <c r="B197" t="s">
-        <v>316</v>
-      </c>
-      <c r="C197" t="s">
-        <v>7</v>
-      </c>
-      <c r="D197" t="s">
-        <v>11</v>
-      </c>
-      <c r="E197" t="s">
-        <v>306</v>
-      </c>
-      <c r="F197">
-        <v>1929</v>
-      </c>
-      <c r="G197">
-        <v>1959</v>
-      </c>
-      <c r="H197">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>307</v>
-      </c>
-      <c r="B198" t="s">
-        <v>316</v>
-      </c>
-      <c r="C198" t="s">
-        <v>7</v>
-      </c>
-      <c r="D198" t="s">
-        <v>23</v>
-      </c>
-      <c r="E198" t="s">
-        <v>9</v>
-      </c>
-      <c r="F198">
-        <v>1932</v>
-      </c>
-      <c r="G198">
-        <v>2019</v>
-      </c>
-      <c r="H198">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>308</v>
-      </c>
-      <c r="B199" t="s">
-        <v>316</v>
-      </c>
-      <c r="C199" t="s">
-        <v>7</v>
-      </c>
-      <c r="D199" t="s">
-        <v>93</v>
-      </c>
-      <c r="E199" t="s">
-        <v>12</v>
-      </c>
-      <c r="F199">
-        <v>1854</v>
-      </c>
-      <c r="G199">
-        <v>1923</v>
-      </c>
-      <c r="H199">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>309</v>
-      </c>
-      <c r="B200" t="s">
-        <v>316</v>
-      </c>
-      <c r="C200" t="s">
-        <v>7</v>
-      </c>
-      <c r="D200" t="s">
-        <v>23</v>
-      </c>
-      <c r="E200" t="s">
-        <v>40</v>
-      </c>
-      <c r="F200">
-        <v>1926</v>
-      </c>
-      <c r="G200">
-        <v>2020</v>
-      </c>
-      <c r="H200">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>310</v>
-      </c>
-      <c r="B201" t="s">
-        <v>316</v>
-      </c>
-      <c r="C201" t="s">
-        <v>7</v>
-      </c>
-      <c r="D201" t="s">
-        <v>311</v>
-      </c>
-      <c r="E201" t="s">
-        <v>47</v>
-      </c>
-      <c r="F201">
-        <v>1926</v>
-      </c>
-      <c r="G201">
-        <v>2014</v>
-      </c>
-      <c r="H201">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>312</v>
-      </c>
-      <c r="B202" t="s">
-        <v>316</v>
-      </c>
-      <c r="C202" t="s">
-        <v>7</v>
-      </c>
-      <c r="D202" t="s">
-        <v>23</v>
-      </c>
-      <c r="E202" t="s">
-        <v>9</v>
-      </c>
-      <c r="F202">
-        <v>1911</v>
-      </c>
-      <c r="G202">
-        <v>1974</v>
-      </c>
-      <c r="H202">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>313</v>
-      </c>
-      <c r="B203" t="s">
-        <v>316</v>
-      </c>
-      <c r="C203" t="s">
-        <v>7</v>
-      </c>
-      <c r="D203" t="s">
-        <v>23</v>
-      </c>
-      <c r="E203" t="s">
-        <v>12</v>
-      </c>
-      <c r="F203">
-        <v>1944</v>
-      </c>
-      <c r="G203">
-        <v>1986</v>
-      </c>
-      <c r="H203">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>314</v>
-      </c>
-      <c r="B204" t="s">
-        <v>316</v>
-      </c>
-      <c r="C204" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204" t="s">
-        <v>23</v>
-      </c>
-      <c r="E204" t="s">
-        <v>12</v>
-      </c>
-      <c r="F204">
-        <v>1939</v>
-      </c>
-      <c r="G204">
-        <v>1988</v>
-      </c>
-      <c r="H204">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>315</v>
-      </c>
-      <c r="B205" t="s">
-        <v>316</v>
-      </c>
-      <c r="C205" t="s">
-        <v>7</v>
-      </c>
-      <c r="D205" t="s">
-        <v>14</v>
-      </c>
-      <c r="E205" t="s">
-        <v>12</v>
-      </c>
-      <c r="F205">
-        <v>1929</v>
-      </c>
-      <c r="G205">
-        <v>1988</v>
-      </c>
-      <c r="H205">
         <v>59</v>
       </c>
     </row>
